--- a/src/test/resources/testdata/order.xlsx
+++ b/src/test/resources/testdata/order.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>feature</t>
   </si>
@@ -47,12 +47,6 @@
   </si>
   <si>
     <t>md1</t>
-  </si>
-  <si>
-    <t>item order process2</t>
-  </si>
-  <si>
-    <t>item order process3</t>
   </si>
   <si>
     <t>bash2</t>
@@ -458,7 +452,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -506,7 +502,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1">
         <v>50018</v>
@@ -517,19 +513,19 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1">
         <v>50019</v>
@@ -540,19 +536,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1">
         <v>50020</v>
@@ -563,19 +559,19 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1">
         <v>50021</v>

--- a/src/test/resources/testdata/order.xlsx
+++ b/src/test/resources/testdata/order.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>feature</t>
   </si>
@@ -25,18 +25,6 @@
     <t>iteration</t>
   </si>
   <si>
-    <t>fname</t>
-  </si>
-  <si>
-    <t>lname</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>pin</t>
-  </si>
-  <si>
     <t>order</t>
   </si>
   <si>
@@ -67,16 +55,10 @@
     <t>md4</t>
   </si>
   <si>
-    <t>india1</t>
-  </si>
-  <si>
-    <t>india2</t>
-  </si>
-  <si>
-    <t>india3</t>
-  </si>
-  <si>
-    <t>india4</t>
+    <t>password</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
 </sst>
 </file>
@@ -450,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -462,7 +444,7 @@
     <col min="3" max="3" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -473,108 +455,78 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1">
-        <v>50018</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1">
-        <v>50019</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1">
-        <v>50020</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="1">
-        <v>50021</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/order.xlsx
+++ b/src/test/resources/testdata/order.xlsx
@@ -435,7 +435,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/resources/testdata/order.xlsx
+++ b/src/test/resources/testdata/order.xlsx
@@ -435,11 +435,12 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="3"/>
   </cols>

--- a/src/test/resources/testdata/order.xlsx
+++ b/src/test/resources/testdata/order.xlsx
@@ -435,13 +435,13 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E5" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="3"/>
   </cols>
   <sheetData>

--- a/src/test/resources/testdata/order.xlsx
+++ b/src/test/resources/testdata/order.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>feature</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>bash44</t>
+  </si>
+  <si>
+    <t>md44</t>
   </si>
 </sst>
 </file>
@@ -432,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="A1:E5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -504,7 +510,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -521,13 +527,30 @@
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
